--- a/result/with_base/123/arousal/s24_2.xlsx
+++ b/result/with_base/123/arousal/s24_2.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8075000047683716</v>
+        <v>0.8716517984867096</v>
       </c>
       <c r="C2" t="n">
-        <v>41718.923828125</v>
+        <v>11287.09521484375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8438636389645663</v>
+        <v>0.8418461119427401</v>
       </c>
       <c r="E2" t="n">
-        <v>41711.56711647727</v>
+        <v>11286.76275275735</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8275000154972076</v>
+        <v>0.8599330484867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40934.123046875</v>
+        <v>10976.26318359375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8835227272727273</v>
+        <v>0.8494616606656242</v>
       </c>
       <c r="E3" t="n">
-        <v>40927.18856534091</v>
+        <v>10976.44686351103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8425000011920929</v>
+        <v>0.8510044515132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40154.1171875</v>
+        <v>10673.650390625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9072727181694724</v>
+        <v>0.870798317825093</v>
       </c>
       <c r="E4" t="n">
-        <v>40149.06214488636</v>
+        <v>10672.95088465074</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8325000107288361</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39389.296875</v>
+        <v>10378.3154296875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9136363701386885</v>
+        <v>0.8870798314318937</v>
       </c>
       <c r="E5" t="n">
-        <v>39382.60582386364</v>
+        <v>10377.85587086397</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8425000011920929</v>
+        <v>0.9051339328289032</v>
       </c>
       <c r="C6" t="n">
-        <v>38632.099609375</v>
+        <v>10088.328125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.8954175430185655</v>
       </c>
       <c r="E6" t="n">
-        <v>38626.82137784091</v>
+        <v>10087.89987362132</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8400000035762787</v>
+        <v>0.8928571343421936</v>
       </c>
       <c r="C7" t="n">
-        <v>37890.06640625</v>
+        <v>9806.23388671875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9320454597473145</v>
+        <v>0.9042804626857534</v>
       </c>
       <c r="E7" t="n">
-        <v>37884.86044034091</v>
+        <v>9805.41739430147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8624999821186066</v>
+        <v>0.8978794515132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37158.205078125</v>
+        <v>9530.8017578125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9480681744488803</v>
+        <v>0.9038209038622239</v>
       </c>
       <c r="E8" t="n">
-        <v>37154.09446022727</v>
+        <v>9529.735638786764</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8549999892711639</v>
+        <v>0.90625</v>
       </c>
       <c r="C9" t="n">
-        <v>36443.44140625</v>
+        <v>9261.75732421875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9457954547621987</v>
+        <v>0.9125525215092827</v>
       </c>
       <c r="E9" t="n">
-        <v>36437.46910511364</v>
+        <v>9260.89803538603</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8725000023841858</v>
+        <v>0.9095982015132904</v>
       </c>
       <c r="C10" t="n">
-        <v>35735.26171875</v>
+        <v>8999.021484375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9620454636487094</v>
+        <v>0.9307379196671879</v>
       </c>
       <c r="E10" t="n">
-        <v>35731.63352272727</v>
+        <v>8998.1923828125</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8499999940395355</v>
+        <v>0.9140625</v>
       </c>
       <c r="C11" t="n">
-        <v>35045.599609375</v>
+        <v>8743.2333984375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9632954543287103</v>
+        <v>0.9370404411764706</v>
       </c>
       <c r="E11" t="n">
-        <v>35040.01846590909</v>
+        <v>8742.512063419117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.887499988079071</v>
+        <v>0.91796875</v>
       </c>
       <c r="C12" t="n">
-        <v>34364.134765625</v>
+        <v>8494.0908203125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9636363658038053</v>
+        <v>0.9397977941176471</v>
       </c>
       <c r="E12" t="n">
-        <v>34360.17507102273</v>
+        <v>8493.351907169117</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8850000202655792</v>
+        <v>0.8984375</v>
       </c>
       <c r="C13" t="n">
-        <v>33696.77734375</v>
+        <v>8251.37451171875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9710227305238898</v>
+        <v>0.9530593472368577</v>
       </c>
       <c r="E13" t="n">
-        <v>33692.828125</v>
+        <v>8250.458869485294</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8799999952316284</v>
+        <v>0.9017857015132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33042.150390625</v>
+        <v>8015.166259765625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9672727422280745</v>
+        <v>0.9336922273916357</v>
       </c>
       <c r="E14" t="n">
-        <v>33037.58309659091</v>
+        <v>8014.137379365809</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8824999928474426</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32396.70703125</v>
+        <v>7784.81884765625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.97431819005446</v>
+        <v>0.9367121843730702</v>
       </c>
       <c r="E15" t="n">
-        <v>32394.05788352273</v>
+        <v>7783.696231617647</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C16" t="n">
-        <v>31764.1767578125</v>
+        <v>7559.822998046875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9792045571587302</v>
+        <v>0.9606092431965996</v>
       </c>
       <c r="E16" t="n">
-        <v>31762.33895596591</v>
+        <v>7559.003532858456</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8799999952316284</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C17" t="n">
-        <v>31146.48046875</v>
+        <v>7341.174560546875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9597727222876116</v>
+        <v>0.9657300430185655</v>
       </c>
       <c r="E17" t="n">
-        <v>31142.87553267046</v>
+        <v>7340.351763556985</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9185267984867096</v>
       </c>
       <c r="C18" t="n">
-        <v>30535</v>
+        <v>7128.42138671875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.981136376207525</v>
+        <v>0.9596244762925541</v>
       </c>
       <c r="E18" t="n">
-        <v>30533.6171875</v>
+        <v>7127.53076171875</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C19" t="n">
-        <v>29939.056640625</v>
+        <v>6920.6513671875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9800000082362782</v>
+        <v>0.9693408608436584</v>
       </c>
       <c r="E19" t="n">
-        <v>29936.46235795454</v>
+        <v>6920.20556640625</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8978794515132904</v>
       </c>
       <c r="C20" t="n">
-        <v>29353.162109375</v>
+        <v>6719.18115234375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9789772846482017</v>
+        <v>0.9619222704102012</v>
       </c>
       <c r="E20" t="n">
-        <v>29350.11434659091</v>
+        <v>6718.495662913603</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28776.779296875</v>
+        <v>6522.6826171875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9862500104037198</v>
+        <v>0.9684217431965996</v>
       </c>
       <c r="E21" t="n">
-        <v>28774.36292613636</v>
+        <v>6522.000517003677</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9224330484867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28211.7646484375</v>
+        <v>6331.472900390625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.986704555424777</v>
+        <v>0.9707851900773889</v>
       </c>
       <c r="E22" t="n">
-        <v>28209.47425426136</v>
+        <v>6330.80655445772</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C23" t="n">
-        <v>27657.5556640625</v>
+        <v>6145.408447265625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9843181967735291</v>
+        <v>0.9727547273916357</v>
       </c>
       <c r="E23" t="n">
-        <v>27655.16424005682</v>
+        <v>6144.736127068015</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9146205484867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27113.2958984375</v>
+        <v>5964.292724609375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9711134468807894</v>
       </c>
       <c r="E24" t="n">
-        <v>27110.998046875</v>
+        <v>5963.625344669118</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C25" t="n">
-        <v>26579.4794921875</v>
+        <v>5788.0166015625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9838636517524719</v>
+        <v>0.9767594547832713</v>
       </c>
       <c r="E25" t="n">
-        <v>26577.10458096591</v>
+        <v>5787.378360523897</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.9268973171710968</v>
       </c>
       <c r="C26" t="n">
-        <v>26055.9638671875</v>
+        <v>5616.462890625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9814206922755522</v>
       </c>
       <c r="E26" t="n">
-        <v>26053.12730823864</v>
+        <v>5615.912080652573</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9056919515132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25541.3037109375</v>
+        <v>5449.820556640625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9879545569419861</v>
+        <v>0.9759716391563416</v>
       </c>
       <c r="E27" t="n">
-        <v>25538.94620028409</v>
+        <v>5449.116182215073</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9051339328289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25036.8486328125</v>
+        <v>5287.549560546875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9663209038622239</v>
       </c>
       <c r="E28" t="n">
-        <v>25034.24627130682</v>
+        <v>5286.854233685662</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C29" t="n">
-        <v>24542.208984375</v>
+        <v>5129.395263671875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9879545569419861</v>
+        <v>0.9791885509210474</v>
       </c>
       <c r="E29" t="n">
-        <v>24539.15127840909</v>
+        <v>5128.883358226103</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C30" t="n">
-        <v>24055.279296875</v>
+        <v>4975.594482421875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9885227355090055</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E30" t="n">
-        <v>24053.19371448864</v>
+        <v>4975.25203929228</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9185267984867096</v>
       </c>
       <c r="C31" t="n">
-        <v>23578.5830078125</v>
+        <v>4826.39892578125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9718356097445768</v>
       </c>
       <c r="E31" t="n">
-        <v>23576.455078125</v>
+        <v>4825.906077665441</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C32" t="n">
-        <v>23111.0048828125</v>
+        <v>4681.01611328125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9801076685681063</v>
       </c>
       <c r="E32" t="n">
-        <v>23108.57492897727</v>
+        <v>4680.56387867647</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C33" t="n">
-        <v>22651.2060546875</v>
+        <v>4539.6884765625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9736081922755522</v>
       </c>
       <c r="E33" t="n">
-        <v>22649.46111505682</v>
+        <v>4539.248420266544</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C34" t="n">
-        <v>22200.951171875</v>
+        <v>4402.164306640625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E34" t="n">
-        <v>22198.98455255682</v>
+        <v>4401.778952205882</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9100000262260437</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21758.609375</v>
+        <v>4268.6181640625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9813550430185655</v>
       </c>
       <c r="E35" t="n">
-        <v>21756.88441051136</v>
+        <v>4268.162310431985</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9185267984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21324.59375</v>
+        <v>4138.87109375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9548319332739886</v>
       </c>
       <c r="E36" t="n">
-        <v>21323.12198153409</v>
+        <v>4138.338120404412</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20899.349609375</v>
+        <v>4012.393310546875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9694065136068007</v>
       </c>
       <c r="E37" t="n">
-        <v>20897.46981534091</v>
+        <v>4011.948644301471</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9100000262260437</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20481.3623046875</v>
+        <v>3889.37255859375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E38" t="n">
-        <v>20479.845703125</v>
+        <v>3889.040728400735</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9453125</v>
       </c>
       <c r="C39" t="n">
-        <v>20072.05859375</v>
+        <v>3769.909423828125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9860227378931913</v>
+        <v>0.9713103981579051</v>
       </c>
       <c r="E39" t="n">
-        <v>20070.13370028409</v>
+        <v>3769.683033662684</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9140625</v>
       </c>
       <c r="C40" t="n">
-        <v>19669.2958984375</v>
+        <v>3654.128173828125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9475446413545048</v>
       </c>
       <c r="E40" t="n">
-        <v>19667.96946022727</v>
+        <v>3653.739875344669</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.9146205484867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19275.8857421875</v>
+        <v>3541.163940429688</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9869318279353055</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E41" t="n">
-        <v>19273.55575284091</v>
+        <v>3540.826775045956</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18887.513671875</v>
+        <v>3431.467163085938</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9850971628637875</v>
       </c>
       <c r="E42" t="n">
-        <v>18886.42045454546</v>
+        <v>3431.16650390625</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8949999809265137</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18508.716796875</v>
+        <v>3324.974243164062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9674369762925541</v>
       </c>
       <c r="E43" t="n">
-        <v>18506.72212357954</v>
+        <v>3324.641457950368</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18135.2177734375</v>
+        <v>3221.43408203125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.973214286215165</v>
       </c>
       <c r="E44" t="n">
-        <v>18134.01083096591</v>
+        <v>3221.079159007353</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9375</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C45" t="n">
-        <v>17770.044921875</v>
+        <v>3120.638305664062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9799763665479773</v>
       </c>
       <c r="E45" t="n">
-        <v>17768.44655539773</v>
+        <v>3120.430017807904</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C46" t="n">
-        <v>17410.7177734375</v>
+        <v>3022.993896484375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9728203766486224</v>
       </c>
       <c r="E46" t="n">
-        <v>17409.74538352273</v>
+        <v>3022.696791704963</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C47" t="n">
-        <v>17059.185546875</v>
+        <v>2927.890991210938</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9827337194891537</v>
       </c>
       <c r="E47" t="n">
-        <v>17057.81321022727</v>
+        <v>2927.682918772978</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C48" t="n">
-        <v>16713.4775390625</v>
+        <v>2835.634765625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.980042015804964</v>
       </c>
       <c r="E48" t="n">
-        <v>16712.54261363636</v>
+        <v>2835.397144990809</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C49" t="n">
-        <v>16375.03369140625</v>
+        <v>2745.97412109375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9809611334520227</v>
       </c>
       <c r="E49" t="n">
-        <v>16373.83433948864</v>
+        <v>2745.731186810662</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C50" t="n">
-        <v>16042.3759765625</v>
+        <v>2658.829467773438</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9759059863931993</v>
       </c>
       <c r="E50" t="n">
-        <v>16041.47745028409</v>
+        <v>2658.641142003677</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,850 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15716.48828125</v>
+        <v>2574.30126953125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9587053586454952</v>
       </c>
       <c r="E51" t="n">
-        <v>15715.439453125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15396.2958984375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15395.56036931818</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15082.36279296875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15081.76180752841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9074999988079071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14775.4169921875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9832954677668485</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14774.07776988636</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14472.37939453125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14471.97993607955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14176.65869140625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9926136406985197</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14175.78133877841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13886.1533203125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13885.20108309659</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13600.900390625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13600.15163352273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13321.158203125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9969318183985624</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13320.49467329545</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13046.80810546875</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13046.20374644886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12778.05517578125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12777.12801846591</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12513.9814453125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12513.19078480114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12255.25</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12254.31782670455</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12000.9111328125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12000.36194957386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11751.9638671875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11751.29989346591</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11507.515625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11507.00026633523</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11267.931640625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11267.40154474432</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11033.23681640625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11032.421875</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10802.60009765625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10801.95134943182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10576.27587890625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9890909194946289</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10575.95321377841</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9175000190734863</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10354.9453125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10354.25887784091</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10137.25732421875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10136.84064275568</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9924.1630859375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9923.657670454546</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9715.06640625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9961363673210144</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9714.565607244318</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9509.95068359375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9938636422157288</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9509.542702414772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9308.78173828125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9918181896209717</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9308.490056818182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9111.74609375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9937500032511625</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9111.352095170454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8918.443359375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8918.04598721591</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8728.76513671875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9915909171104431</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8728.520951704546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8543.24267578125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9882954629984769</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8542.68954190341</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8360.92529296875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8360.455255681818</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2058823529411765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2647058823529412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8529411764705882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004854368932038835</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8529411764705882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.004854368932038835</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01456310679611651</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01456310679611651</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9117647058823529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1213592233009709</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9117647058823529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1213592233009709</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9705882352941176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1990291262135922</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9705882352941176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1990291262135922</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9864363221016561</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8592233009708737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.883495145631068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8932038834951457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9077669902912622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9271844660194175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9854368932038835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9854368932038835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9951456310679612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1470588235294118</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9951456310679612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1470588235294118</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9750856653340948</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2574.082835477941</v>
       </c>
     </row>
   </sheetData>
